--- a/LogFormatter/input.xlsx
+++ b/LogFormatter/input.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,6 +29,10 @@
     </font>
     <font>
       <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -75,9 +79,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -379,7 +387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -398,1297 +406,2333 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="19.23076923076923" r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t># Date</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Data1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Data2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Color</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Direction</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>2024/04/23</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>07:21:59.804</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>'DataA15'</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>'DataB49'</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>'blue'</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>'after'</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>'B'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>2024/04/23</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>07:51:40.812</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>'DataA55'</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>'DataB33'</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>'green'</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>'after'</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>'B'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>2024/04/23</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>08:12:05.238</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>'DataA59'</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>'DataB43'</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>'green'</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>'before'</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>'D'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>2024/04/23</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>09:34:48.116</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>'DataA55'</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>'DataB33'</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>'yellow'</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>'before'</t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G5" s="6" t="inlineStr">
         <is>
           <t>'F'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>2024/04/23</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>12:48:01.641</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>'DataA15'</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>'DataB49'</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>'green'</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>'before'</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>'E'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>2024/04/23</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="7" t="inlineStr">
         <is>
           <t>16:20:33.453</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="7" t="inlineStr">
         <is>
           <t>'DataA59'</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
+      <c r="D7" s="7" t="inlineStr">
         <is>
           <t>'DataB43'</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="E7" s="7" t="inlineStr">
         <is>
           <t>'red'</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>'after'</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
+      <c r="F7" s="7" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G7" s="7" t="inlineStr">
         <is>
           <t>'C'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="5" t="inlineStr">
         <is>
           <t>2024/04/23</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>22:13:48.142</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>'DataA36'</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>'DataB25'</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>'green'</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>'before'</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>'F'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="5" t="inlineStr">
         <is>
           <t>2024/04/24</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>08:42:17.786</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>'DataA26'</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>'DataB76'</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>'green'</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>'after'</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>'D'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="7" t="inlineStr">
         <is>
           <t>2024/04/24</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B10" s="7" t="inlineStr">
         <is>
           <t>09:24:34.435</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="C10" s="7" t="inlineStr">
         <is>
           <t>'DataA87'</t>
         </is>
       </c>
-      <c r="D10" s="5" t="inlineStr">
+      <c r="D10" s="7" t="inlineStr">
         <is>
           <t>'DataB68'</t>
         </is>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="E10" s="7" t="inlineStr">
         <is>
           <t>'red'</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
-        <is>
-          <t>'before'</t>
-        </is>
-      </c>
-      <c r="G10" s="5" t="inlineStr">
+      <c r="F10" s="7" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr">
         <is>
           <t>'F'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>2024/04/24</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>14:10:56.465</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" s="4" t="inlineStr">
         <is>
           <t>'DataA75'</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>'DataB16'</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" s="4" t="inlineStr">
         <is>
           <t>'blue'</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>'before'</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="F11" s="4" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G11" s="4" t="inlineStr">
         <is>
           <t>'A'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>2024/04/24</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>14:29:37.926</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>'DataA26'</t>
         </is>
       </c>
-      <c r="D12" s="4" t="inlineStr">
+      <c r="D12" s="6" t="inlineStr">
         <is>
           <t>'DataB76'</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
+      <c r="E12" s="6" t="inlineStr">
         <is>
           <t>'yellow'</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>'after'</t>
-        </is>
-      </c>
-      <c r="G12" s="4" t="inlineStr">
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G12" s="6" t="inlineStr">
         <is>
           <t>'E'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>2024/04/24</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>16:36:05.541</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" s="4" t="inlineStr">
         <is>
           <t>'DataA67'</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>'DataB39'</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E13" s="4" t="inlineStr">
         <is>
           <t>'blue'</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>'before'</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
         <is>
           <t>'C'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="14">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="A14" s="7" t="inlineStr">
         <is>
           <t>2024/04/24</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="B14" s="7" t="inlineStr">
         <is>
           <t>17:06:30.491</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="C14" s="7" t="inlineStr">
         <is>
           <t>'DataA87'</t>
         </is>
       </c>
-      <c r="D14" s="5" t="inlineStr">
+      <c r="D14" s="7" t="inlineStr">
         <is>
           <t>'DataB68'</t>
         </is>
       </c>
-      <c r="E14" s="5" t="inlineStr">
+      <c r="E14" s="7" t="inlineStr">
         <is>
           <t>'red'</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
-        <is>
-          <t>'after'</t>
-        </is>
-      </c>
-      <c r="G14" s="5" t="inlineStr">
+      <c r="F14" s="7" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr">
         <is>
           <t>'D'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="15">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="7" t="inlineStr">
         <is>
           <t>2024/04/25</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="B15" s="7" t="inlineStr">
         <is>
           <t>05:37:28.532</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="C15" s="7" t="inlineStr">
         <is>
           <t>'DataA42'</t>
         </is>
       </c>
-      <c r="D15" s="5" t="inlineStr">
+      <c r="D15" s="7" t="inlineStr">
         <is>
           <t>'DataB84'</t>
         </is>
       </c>
-      <c r="E15" s="5" t="inlineStr">
+      <c r="E15" s="7" t="inlineStr">
         <is>
           <t>'red'</t>
         </is>
       </c>
-      <c r="F15" s="5" t="inlineStr">
-        <is>
-          <t>'before'</t>
-        </is>
-      </c>
-      <c r="G15" s="5" t="inlineStr">
+      <c r="F15" s="7" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr">
         <is>
           <t>'A'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>2024/04/25</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="6" t="inlineStr">
         <is>
           <t>07:29:15.632</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>'DataA19'</t>
         </is>
       </c>
-      <c r="D16" s="4" t="inlineStr">
+      <c r="D16" s="6" t="inlineStr">
         <is>
           <t>'DataB56'</t>
         </is>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="6" t="inlineStr">
         <is>
           <t>'yellow'</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>'after'</t>
-        </is>
-      </c>
-      <c r="G16" s="4" t="inlineStr">
+      <c r="F16" s="6" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G16" s="6" t="inlineStr">
         <is>
           <t>'C'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="17">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="A17" s="7" t="inlineStr">
         <is>
           <t>2024/04/25</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="B17" s="7" t="inlineStr">
         <is>
           <t>08:08:10.324</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="C17" s="7" t="inlineStr">
         <is>
           <t>'DataA28'</t>
         </is>
       </c>
-      <c r="D17" s="5" t="inlineStr">
+      <c r="D17" s="7" t="inlineStr">
         <is>
           <t>'DataB28'</t>
         </is>
       </c>
-      <c r="E17" s="5" t="inlineStr">
+      <c r="E17" s="7" t="inlineStr">
         <is>
           <t>'red'</t>
         </is>
       </c>
-      <c r="F17" s="5" t="inlineStr">
-        <is>
-          <t>'after'</t>
-        </is>
-      </c>
-      <c r="G17" s="5" t="inlineStr">
+      <c r="F17" s="7" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G17" s="7" t="inlineStr">
         <is>
           <t>'F'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="6" t="inlineStr">
         <is>
           <t>2024/04/25</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="6" t="inlineStr">
         <is>
           <t>11:45:24.342</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>'DataA42'</t>
         </is>
       </c>
-      <c r="D18" s="4" t="inlineStr">
+      <c r="D18" s="6" t="inlineStr">
         <is>
           <t>'DataB84'</t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr">
+      <c r="E18" s="6" t="inlineStr">
         <is>
           <t>'yellow'</t>
         </is>
       </c>
-      <c r="F18" s="4" t="inlineStr">
-        <is>
-          <t>'before'</t>
-        </is>
-      </c>
-      <c r="G18" s="4" t="inlineStr">
+      <c r="F18" s="6" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G18" s="6" t="inlineStr">
         <is>
           <t>'E'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="19">
-      <c r="A19" s="3" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>2024/04/25</t>
         </is>
       </c>
-      <c r="B19" s="3" t="inlineStr">
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>12:52:09.689</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C19" s="5" t="inlineStr">
         <is>
           <t>'DataA32'</t>
         </is>
       </c>
-      <c r="D19" s="3" t="inlineStr">
+      <c r="D19" s="5" t="inlineStr">
         <is>
           <t>'DataB92'</t>
         </is>
       </c>
-      <c r="E19" s="3" t="inlineStr">
+      <c r="E19" s="5" t="inlineStr">
         <is>
           <t>'green'</t>
         </is>
       </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>'after'</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G19" s="5" t="inlineStr">
         <is>
           <t>'C'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>2024/04/25</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="6" t="inlineStr">
         <is>
           <t>14:30:22.886</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>'DataA32'</t>
         </is>
       </c>
-      <c r="D20" s="4" t="inlineStr">
+      <c r="D20" s="6" t="inlineStr">
         <is>
           <t>'DataB92'</t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr">
+      <c r="E20" s="6" t="inlineStr">
         <is>
           <t>'yellow'</t>
         </is>
       </c>
-      <c r="F20" s="4" t="inlineStr">
-        <is>
-          <t>'before'</t>
-        </is>
-      </c>
-      <c r="G20" s="4" t="inlineStr">
+      <c r="F20" s="6" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G20" s="6" t="inlineStr">
         <is>
           <t>'D'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="21">
-      <c r="A21" s="5" t="inlineStr">
+      <c r="A21" s="7" t="inlineStr">
         <is>
           <t>2024/04/25</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="B21" s="7" t="inlineStr">
         <is>
           <t>18:47:32.328</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="C21" s="7" t="inlineStr">
         <is>
           <t>'DataA28'</t>
         </is>
       </c>
-      <c r="D21" s="5" t="inlineStr">
+      <c r="D21" s="7" t="inlineStr">
         <is>
           <t>'DataB28'</t>
         </is>
       </c>
-      <c r="E21" s="5" t="inlineStr">
+      <c r="E21" s="7" t="inlineStr">
         <is>
           <t>'red'</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
-        <is>
-          <t>'before'</t>
-        </is>
-      </c>
-      <c r="G21" s="5" t="inlineStr">
+      <c r="F21" s="7" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="inlineStr">
         <is>
           <t>'E'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="22">
-      <c r="A22" s="5" t="inlineStr">
+      <c r="A22" s="7" t="inlineStr">
         <is>
           <t>2024/04/26</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="B22" s="7" t="inlineStr">
         <is>
           <t>04:57:39.888</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="C22" s="7" t="inlineStr">
         <is>
           <t>'DataA94'</t>
         </is>
       </c>
-      <c r="D22" s="5" t="inlineStr">
+      <c r="D22" s="7" t="inlineStr">
         <is>
           <t>'DataB61'</t>
         </is>
       </c>
-      <c r="E22" s="5" t="inlineStr">
+      <c r="E22" s="7" t="inlineStr">
         <is>
           <t>'red'</t>
         </is>
       </c>
-      <c r="F22" s="5" t="inlineStr">
-        <is>
-          <t>'after'</t>
-        </is>
-      </c>
-      <c r="G22" s="5" t="inlineStr">
+      <c r="F22" s="7" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="inlineStr">
         <is>
           <t>'D'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="4" t="inlineStr">
         <is>
           <t>2024/04/26</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>11:15:09.112</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" s="4" t="inlineStr">
         <is>
           <t>'DataA91'</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t>'DataB34'</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="E23" s="4" t="inlineStr">
         <is>
           <t>'blue'</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>'before'</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
         <is>
           <t>'B'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="5" t="inlineStr">
         <is>
           <t>2024/04/26</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>14:57:38.964</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="C24" s="5" t="inlineStr">
         <is>
           <t>'DataA83'</t>
         </is>
       </c>
-      <c r="D24" s="3" t="inlineStr">
+      <c r="D24" s="5" t="inlineStr">
         <is>
           <t>'DataB65'</t>
         </is>
       </c>
-      <c r="E24" s="3" t="inlineStr">
+      <c r="E24" s="5" t="inlineStr">
         <is>
           <t>'green'</t>
         </is>
       </c>
-      <c r="F24" s="3" t="inlineStr">
-        <is>
-          <t>'before'</t>
-        </is>
-      </c>
-      <c r="G24" s="3" t="inlineStr">
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G24" s="5" t="inlineStr">
         <is>
           <t>'B'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="25">
-      <c r="A25" s="5" t="inlineStr">
+      <c r="A25" s="7" t="inlineStr">
         <is>
           <t>2024/04/26</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="B25" s="7" t="inlineStr">
         <is>
           <t>18:53:11.051</t>
         </is>
       </c>
-      <c r="C25" s="5" t="inlineStr">
+      <c r="C25" s="7" t="inlineStr">
         <is>
           <t>'DataA91'</t>
         </is>
       </c>
-      <c r="D25" s="5" t="inlineStr">
+      <c r="D25" s="7" t="inlineStr">
         <is>
           <t>'DataB34'</t>
         </is>
       </c>
-      <c r="E25" s="5" t="inlineStr">
+      <c r="E25" s="7" t="inlineStr">
         <is>
           <t>'red'</t>
         </is>
       </c>
-      <c r="F25" s="5" t="inlineStr">
-        <is>
-          <t>'before'</t>
-        </is>
-      </c>
-      <c r="G25" s="5" t="inlineStr">
+      <c r="F25" s="7" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G25" s="7" t="inlineStr">
         <is>
           <t>'C'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="6" t="inlineStr">
         <is>
           <t>2024/04/26</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="6" t="inlineStr">
         <is>
           <t>19:03:11.997</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="C26" s="6" t="inlineStr">
         <is>
           <t>'DataA83'</t>
         </is>
       </c>
-      <c r="D26" s="4" t="inlineStr">
+      <c r="D26" s="6" t="inlineStr">
         <is>
           <t>'DataB65'</t>
         </is>
       </c>
-      <c r="E26" s="4" t="inlineStr">
+      <c r="E26" s="6" t="inlineStr">
         <is>
           <t>'yellow'</t>
         </is>
       </c>
-      <c r="F26" s="4" t="inlineStr">
-        <is>
-          <t>'after'</t>
-        </is>
-      </c>
-      <c r="G26" s="4" t="inlineStr">
+      <c r="F26" s="6" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G26" s="6" t="inlineStr">
         <is>
           <t>'A'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="27">
-      <c r="A27" s="2" t="inlineStr">
+      <c r="A27" s="4" t="inlineStr">
         <is>
           <t>2024/04/27</t>
         </is>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>03:17:58.779</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t>'DataA67'</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="D27" s="4" t="inlineStr">
         <is>
           <t>'DataB21'</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="E27" s="4" t="inlineStr">
         <is>
           <t>'blue'</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>'after'</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
+      <c r="F27" s="4" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G27" s="4" t="inlineStr">
         <is>
           <t>'F'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="28">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="6" t="inlineStr">
         <is>
           <t>2024/04/27</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="6" t="inlineStr">
         <is>
           <t>13:29:03.566</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="C28" s="6" t="inlineStr">
         <is>
           <t>'DataA49'</t>
         </is>
       </c>
-      <c r="D28" s="4" t="inlineStr">
+      <c r="D28" s="6" t="inlineStr">
         <is>
           <t>'DataB94'</t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr">
+      <c r="E28" s="6" t="inlineStr">
         <is>
           <t>'yellow'</t>
         </is>
       </c>
-      <c r="F28" s="4" t="inlineStr">
-        <is>
-          <t>'before'</t>
-        </is>
-      </c>
-      <c r="G28" s="4" t="inlineStr">
+      <c r="F28" s="6" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G28" s="6" t="inlineStr">
         <is>
           <t>'D'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="29">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="A29" s="6" t="inlineStr">
         <is>
           <t>2024/04/27</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" s="6" t="inlineStr">
         <is>
           <t>21:53:50.209</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="C29" s="6" t="inlineStr">
         <is>
           <t>'DataA67'</t>
         </is>
       </c>
-      <c r="D29" s="4" t="inlineStr">
+      <c r="D29" s="6" t="inlineStr">
         <is>
           <t>'DataB21'</t>
         </is>
       </c>
-      <c r="E29" s="4" t="inlineStr">
+      <c r="E29" s="6" t="inlineStr">
         <is>
           <t>'yellow'</t>
         </is>
       </c>
-      <c r="F29" s="4" t="inlineStr">
-        <is>
-          <t>'after'</t>
-        </is>
-      </c>
-      <c r="G29" s="4" t="inlineStr">
+      <c r="F29" s="6" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G29" s="6" t="inlineStr">
         <is>
           <t>'F'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="30">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>2024/04/27</t>
         </is>
       </c>
-      <c r="B30" s="3" t="inlineStr">
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>23:56:44.003</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>'DataA49'</t>
         </is>
       </c>
-      <c r="D30" s="3" t="inlineStr">
+      <c r="D30" s="5" t="inlineStr">
         <is>
           <t>'DataB94'</t>
         </is>
       </c>
-      <c r="E30" s="3" t="inlineStr">
+      <c r="E30" s="5" t="inlineStr">
         <is>
           <t>'green'</t>
         </is>
       </c>
-      <c r="F30" s="3" t="inlineStr">
-        <is>
-          <t>'after'</t>
-        </is>
-      </c>
-      <c r="G30" s="3" t="inlineStr">
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="inlineStr">
         <is>
           <t>'B'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="31">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="6" t="inlineStr">
         <is>
           <t>2024/04/28</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="6" t="inlineStr">
         <is>
           <t>00:00:34.976</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="C31" s="6" t="inlineStr">
         <is>
           <t>'DataA32'</t>
         </is>
       </c>
-      <c r="D31" s="4" t="inlineStr">
+      <c r="D31" s="6" t="inlineStr">
         <is>
           <t>'DataB13'</t>
         </is>
       </c>
-      <c r="E31" s="4" t="inlineStr">
+      <c r="E31" s="6" t="inlineStr">
         <is>
           <t>'yellow'</t>
         </is>
       </c>
-      <c r="F31" s="4" t="inlineStr">
-        <is>
-          <t>'after'</t>
-        </is>
-      </c>
-      <c r="G31" s="4" t="inlineStr">
+      <c r="F31" s="6" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G31" s="6" t="inlineStr">
         <is>
           <t>'E'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="32">
-      <c r="A32" s="2" t="inlineStr">
+      <c r="A32" s="4" t="inlineStr">
         <is>
           <t>2024/04/28</t>
         </is>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="B32" s="4" t="inlineStr">
         <is>
           <t>02:18:59.764</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="C32" s="4" t="inlineStr">
         <is>
           <t>'DataA69'</t>
         </is>
       </c>
-      <c r="D32" s="2" t="inlineStr">
+      <c r="D32" s="4" t="inlineStr">
         <is>
           <t>'DataB77'</t>
         </is>
       </c>
-      <c r="E32" s="2" t="inlineStr">
+      <c r="E32" s="4" t="inlineStr">
         <is>
           <t>'blue'</t>
         </is>
       </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>'before'</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
+      <c r="F32" s="4" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G32" s="4" t="inlineStr">
         <is>
           <t>'C'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="33">
-      <c r="A33" s="5" t="inlineStr">
+      <c r="A33" s="7" t="inlineStr">
         <is>
           <t>2024/04/28</t>
         </is>
       </c>
-      <c r="B33" s="5" t="inlineStr">
+      <c r="B33" s="7" t="inlineStr">
         <is>
           <t>10:34:17.829</t>
         </is>
       </c>
-      <c r="C33" s="5" t="inlineStr">
+      <c r="C33" s="7" t="inlineStr">
         <is>
           <t>'DataA78'</t>
         </is>
       </c>
-      <c r="D33" s="5" t="inlineStr">
+      <c r="D33" s="7" t="inlineStr">
         <is>
           <t>'DataB57'</t>
         </is>
       </c>
-      <c r="E33" s="5" t="inlineStr">
+      <c r="E33" s="7" t="inlineStr">
         <is>
           <t>'red'</t>
         </is>
       </c>
-      <c r="F33" s="5" t="inlineStr">
-        <is>
-          <t>'before'</t>
-        </is>
-      </c>
-      <c r="G33" s="5" t="inlineStr">
+      <c r="F33" s="7" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G33" s="7" t="inlineStr">
         <is>
           <t>'A'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="34">
-      <c r="A34" s="2" t="inlineStr">
+      <c r="A34" s="4" t="inlineStr">
         <is>
           <t>2024/04/28</t>
         </is>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B34" s="4" t="inlineStr">
         <is>
           <t>17:09:13.119</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C34" s="4" t="inlineStr">
         <is>
           <t>'DataA78'</t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr">
+      <c r="D34" s="4" t="inlineStr">
         <is>
           <t>'DataB57'</t>
         </is>
       </c>
-      <c r="E34" s="2" t="inlineStr">
+      <c r="E34" s="4" t="inlineStr">
         <is>
           <t>'blue'</t>
         </is>
       </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>'after'</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="inlineStr">
+      <c r="F34" s="4" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G34" s="4" t="inlineStr">
         <is>
           <t>'C'</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="19.23076923076923" r="35">
-      <c r="A35" s="2" t="inlineStr">
+      <c r="A35" s="4" t="inlineStr">
         <is>
           <t>2024/04/28</t>
         </is>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>21:49:38.269</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C35" s="4" t="inlineStr">
         <is>
           <t>'DataA69'</t>
         </is>
       </c>
-      <c r="D35" s="2" t="inlineStr">
+      <c r="D35" s="4" t="inlineStr">
         <is>
           <t>'DataB77'</t>
         </is>
       </c>
-      <c r="E35" s="2" t="inlineStr">
+      <c r="E35" s="4" t="inlineStr">
         <is>
           <t>'blue'</t>
         </is>
       </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>'after'</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="inlineStr">
+      <c r="F35" s="4" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G35" s="4" t="inlineStr">
         <is>
           <t>'A'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.23076923076923" r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>2024/05/05</t>
+        </is>
+      </c>
+      <c r="B36" s="7" t="inlineStr">
+        <is>
+          <t>14:40:32.684</t>
+        </is>
+      </c>
+      <c r="C36" s="7" t="inlineStr">
+        <is>
+          <t>'DataA86'</t>
+        </is>
+      </c>
+      <c r="D36" s="7" t="inlineStr">
+        <is>
+          <t>'DataB94'</t>
+        </is>
+      </c>
+      <c r="E36" s="7" t="inlineStr">
+        <is>
+          <t>'red'</t>
+        </is>
+      </c>
+      <c r="F36" s="7" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G36" s="7" t="inlineStr">
+        <is>
+          <t>'B'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.23076923076923" r="37">
+      <c r="A37" s="4" t="inlineStr">
+        <is>
+          <t>2024/05/05</t>
+        </is>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>20:40:57.827</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>'DataA25'</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>'DataB93'</t>
+        </is>
+      </c>
+      <c r="E37" s="4" t="inlineStr">
+        <is>
+          <t>'blue'</t>
+        </is>
+      </c>
+      <c r="F37" s="4" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G37" s="4" t="inlineStr">
+        <is>
+          <t>'D'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.23076923076923" r="38">
+      <c r="A38" s="7" t="inlineStr">
+        <is>
+          <t>2024/05/06</t>
+        </is>
+      </c>
+      <c r="B38" s="7" t="inlineStr">
+        <is>
+          <t>08:17:49.174</t>
+        </is>
+      </c>
+      <c r="C38" s="7" t="inlineStr">
+        <is>
+          <t>'DataA38'</t>
+        </is>
+      </c>
+      <c r="D38" s="7" t="inlineStr">
+        <is>
+          <t>'DataB74'</t>
+        </is>
+      </c>
+      <c r="E38" s="7" t="inlineStr">
+        <is>
+          <t>'red'</t>
+        </is>
+      </c>
+      <c r="F38" s="7" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G38" s="7" t="inlineStr">
+        <is>
+          <t>'D'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.23076923076923" r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>2024/05/06</t>
+        </is>
+      </c>
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>09:15:28.982</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="inlineStr">
+        <is>
+          <t>'DataA71'</t>
+        </is>
+      </c>
+      <c r="D39" s="5" t="inlineStr">
+        <is>
+          <t>'DataB33'</t>
+        </is>
+      </c>
+      <c r="E39" s="5" t="inlineStr">
+        <is>
+          <t>'green'</t>
+        </is>
+      </c>
+      <c r="F39" s="5" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G39" s="5" t="inlineStr">
+        <is>
+          <t>'E'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.23076923076923" r="40">
+      <c r="A40" s="4" t="inlineStr">
+        <is>
+          <t>2024/05/06</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>11:52:24.579</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>'DataA78'</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>'DataB38'</t>
+        </is>
+      </c>
+      <c r="E40" s="4" t="inlineStr">
+        <is>
+          <t>'blue'</t>
+        </is>
+      </c>
+      <c r="F40" s="4" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G40" s="4" t="inlineStr">
+        <is>
+          <t>'B'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.23076923076923" r="41">
+      <c r="A41" s="4" t="inlineStr">
+        <is>
+          <t>2024/05/07</t>
+        </is>
+      </c>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>01:24:39.015</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>'DataA17'</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>'DataB69'</t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>'blue'</t>
+        </is>
+      </c>
+      <c r="F41" s="4" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G41" s="4" t="inlineStr">
+        <is>
+          <t>'B'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.23076923076923" r="42">
+      <c r="A42" s="7" t="inlineStr">
+        <is>
+          <t>2024/05/07</t>
+        </is>
+      </c>
+      <c r="B42" s="7" t="inlineStr">
+        <is>
+          <t>06:25:19.113</t>
+        </is>
+      </c>
+      <c r="C42" s="7" t="inlineStr">
+        <is>
+          <t>'DataA95'</t>
+        </is>
+      </c>
+      <c r="D42" s="7" t="inlineStr">
+        <is>
+          <t>'DataB53'</t>
+        </is>
+      </c>
+      <c r="E42" s="7" t="inlineStr">
+        <is>
+          <t>'red'</t>
+        </is>
+      </c>
+      <c r="F42" s="7" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G42" s="7" t="inlineStr">
+        <is>
+          <t>'A'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.23076923076923" r="43">
+      <c r="A43" s="7" t="inlineStr">
+        <is>
+          <t>2024/05/07</t>
+        </is>
+      </c>
+      <c r="B43" s="7" t="inlineStr">
+        <is>
+          <t>18:32:40.409</t>
+        </is>
+      </c>
+      <c r="C43" s="7" t="inlineStr">
+        <is>
+          <t>'DataA16'</t>
+        </is>
+      </c>
+      <c r="D43" s="7" t="inlineStr">
+        <is>
+          <t>'DataB89'</t>
+        </is>
+      </c>
+      <c r="E43" s="7" t="inlineStr">
+        <is>
+          <t>'red'</t>
+        </is>
+      </c>
+      <c r="F43" s="7" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G43" s="7" t="inlineStr">
+        <is>
+          <t>'C'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.23076923076923" r="44">
+      <c r="A44" s="6" t="inlineStr">
+        <is>
+          <t>2024/05/08</t>
+        </is>
+      </c>
+      <c r="B44" s="6" t="inlineStr">
+        <is>
+          <t>03:59:55.364</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="inlineStr">
+        <is>
+          <t>'DataA42'</t>
+        </is>
+      </c>
+      <c r="D44" s="6" t="inlineStr">
+        <is>
+          <t>'DataB75'</t>
+        </is>
+      </c>
+      <c r="E44" s="6" t="inlineStr">
+        <is>
+          <t>'yellow'</t>
+        </is>
+      </c>
+      <c r="F44" s="6" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G44" s="6" t="inlineStr">
+        <is>
+          <t>'F'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.23076923076923" r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>2024/05/08</t>
+        </is>
+      </c>
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>07:55:16.333</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="inlineStr">
+        <is>
+          <t>'DataA32'</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="inlineStr">
+        <is>
+          <t>'DataB87'</t>
+        </is>
+      </c>
+      <c r="E45" s="5" t="inlineStr">
+        <is>
+          <t>'green'</t>
+        </is>
+      </c>
+      <c r="F45" s="5" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G45" s="5" t="inlineStr">
+        <is>
+          <t>'C'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.23076923076923" r="46">
+      <c r="A46" s="4" t="inlineStr">
+        <is>
+          <t>2024/05/08</t>
+        </is>
+      </c>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>10:04:29.875</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>'DataA53'</t>
+        </is>
+      </c>
+      <c r="D46" s="4" t="inlineStr">
+        <is>
+          <t>'DataB11'</t>
+        </is>
+      </c>
+      <c r="E46" s="4" t="inlineStr">
+        <is>
+          <t>'blue'</t>
+        </is>
+      </c>
+      <c r="F46" s="4" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G46" s="4" t="inlineStr">
+        <is>
+          <t>'B'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.23076923076923" r="47">
+      <c r="A47" s="4" t="inlineStr">
+        <is>
+          <t>2024/05/09</t>
+        </is>
+      </c>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>12:30:50.315</t>
+        </is>
+      </c>
+      <c r="C47" s="4" t="inlineStr">
+        <is>
+          <t>'DataA29'</t>
+        </is>
+      </c>
+      <c r="D47" s="4" t="inlineStr">
+        <is>
+          <t>'DataB96'</t>
+        </is>
+      </c>
+      <c r="E47" s="4" t="inlineStr">
+        <is>
+          <t>'blue'</t>
+        </is>
+      </c>
+      <c r="F47" s="4" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G47" s="4" t="inlineStr">
+        <is>
+          <t>'C'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.23076923076923" r="48">
+      <c r="A48" s="6" t="inlineStr">
+        <is>
+          <t>2024/05/09</t>
+        </is>
+      </c>
+      <c r="B48" s="6" t="inlineStr">
+        <is>
+          <t>19:36:44.791</t>
+        </is>
+      </c>
+      <c r="C48" s="6" t="inlineStr">
+        <is>
+          <t>'DataA35'</t>
+        </is>
+      </c>
+      <c r="D48" s="6" t="inlineStr">
+        <is>
+          <t>'DataB81'</t>
+        </is>
+      </c>
+      <c r="E48" s="6" t="inlineStr">
+        <is>
+          <t>'yellow'</t>
+        </is>
+      </c>
+      <c r="F48" s="6" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G48" s="6" t="inlineStr">
+        <is>
+          <t>'E'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.23076923076923" r="49">
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>2024/05/10</t>
+        </is>
+      </c>
+      <c r="B49" s="6" t="inlineStr">
+        <is>
+          <t>12:17:30.701</t>
+        </is>
+      </c>
+      <c r="C49" s="6" t="inlineStr">
+        <is>
+          <t>'DataA58'</t>
+        </is>
+      </c>
+      <c r="D49" s="6" t="inlineStr">
+        <is>
+          <t>'DataB31'</t>
+        </is>
+      </c>
+      <c r="E49" s="6" t="inlineStr">
+        <is>
+          <t>'yellow'</t>
+        </is>
+      </c>
+      <c r="F49" s="6" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G49" s="6" t="inlineStr">
+        <is>
+          <t>'D'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.23076923076923" r="50">
+      <c r="A50" s="4" t="inlineStr">
+        <is>
+          <t>2024/05/10</t>
+        </is>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>15:48:11.703</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>'DataA49'</t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="inlineStr">
+        <is>
+          <t>'DataB67'</t>
+        </is>
+      </c>
+      <c r="E50" s="4" t="inlineStr">
+        <is>
+          <t>'blue'</t>
+        </is>
+      </c>
+      <c r="F50" s="4" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G50" s="4" t="inlineStr">
+        <is>
+          <t>'F'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.23076923076923" r="51">
+      <c r="A51" s="6" t="inlineStr">
+        <is>
+          <t>2024/05/10</t>
+        </is>
+      </c>
+      <c r="B51" s="6" t="inlineStr">
+        <is>
+          <t>17:58:29.921</t>
+        </is>
+      </c>
+      <c r="C51" s="6" t="inlineStr">
+        <is>
+          <t>'DataA18'</t>
+        </is>
+      </c>
+      <c r="D51" s="6" t="inlineStr">
+        <is>
+          <t>'DataB82'</t>
+        </is>
+      </c>
+      <c r="E51" s="6" t="inlineStr">
+        <is>
+          <t>'yellow'</t>
+        </is>
+      </c>
+      <c r="F51" s="6" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G51" s="6" t="inlineStr">
+        <is>
+          <t>'D'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.23076923076923" r="52">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>2024/05/11</t>
+        </is>
+      </c>
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t>16:15:10.508</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>'DataA52'</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="inlineStr">
+        <is>
+          <t>'DataB29'</t>
+        </is>
+      </c>
+      <c r="E52" s="5" t="inlineStr">
+        <is>
+          <t>'green'</t>
+        </is>
+      </c>
+      <c r="F52" s="5" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G52" s="5" t="inlineStr">
+        <is>
+          <t>'F'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.23076923076923" r="53">
+      <c r="A53" s="6" t="inlineStr">
+        <is>
+          <t>2024/05/11</t>
+        </is>
+      </c>
+      <c r="B53" s="6" t="inlineStr">
+        <is>
+          <t>21:58:03.642</t>
+        </is>
+      </c>
+      <c r="C53" s="6" t="inlineStr">
+        <is>
+          <t>'DataA66'</t>
+        </is>
+      </c>
+      <c r="D53" s="6" t="inlineStr">
+        <is>
+          <t>'DataB58'</t>
+        </is>
+      </c>
+      <c r="E53" s="6" t="inlineStr">
+        <is>
+          <t>'yellow'</t>
+        </is>
+      </c>
+      <c r="F53" s="6" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G53" s="6" t="inlineStr">
+        <is>
+          <t>'F'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.23076923076923" r="54">
+      <c r="A54" s="7" t="inlineStr">
+        <is>
+          <t>2024/05/12</t>
+        </is>
+      </c>
+      <c r="B54" s="7" t="inlineStr">
+        <is>
+          <t>05:38:29.472</t>
+        </is>
+      </c>
+      <c r="C54" s="7" t="inlineStr">
+        <is>
+          <t>'DataA79'</t>
+        </is>
+      </c>
+      <c r="D54" s="7" t="inlineStr">
+        <is>
+          <t>'DataB44'</t>
+        </is>
+      </c>
+      <c r="E54" s="7" t="inlineStr">
+        <is>
+          <t>'red'</t>
+        </is>
+      </c>
+      <c r="F54" s="7" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G54" s="7" t="inlineStr">
+        <is>
+          <t>'E'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.23076923076923" r="55">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>2024/05/12</t>
+        </is>
+      </c>
+      <c r="B55" s="6" t="inlineStr">
+        <is>
+          <t>06:21:57.562</t>
+        </is>
+      </c>
+      <c r="C55" s="6" t="inlineStr">
+        <is>
+          <t>'DataA96'</t>
+        </is>
+      </c>
+      <c r="D55" s="6" t="inlineStr">
+        <is>
+          <t>'DataB22'</t>
+        </is>
+      </c>
+      <c r="E55" s="6" t="inlineStr">
+        <is>
+          <t>'yellow'</t>
+        </is>
+      </c>
+      <c r="F55" s="6" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G55" s="6" t="inlineStr">
+        <is>
+          <t>'A'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.23076923076923" r="56">
+      <c r="A56" s="4" t="inlineStr">
+        <is>
+          <t>2024/05/12</t>
+        </is>
+      </c>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>08:03:09.182</t>
+        </is>
+      </c>
+      <c r="C56" s="4" t="inlineStr">
+        <is>
+          <t>'DataA63'</t>
+        </is>
+      </c>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t>'DataB27'</t>
+        </is>
+      </c>
+      <c r="E56" s="4" t="inlineStr">
+        <is>
+          <t>'blue'</t>
+        </is>
+      </c>
+      <c r="F56" s="4" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G56" s="4" t="inlineStr">
+        <is>
+          <t>'E'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.23076923076923" r="57">
+      <c r="A57" s="5" t="inlineStr">
+        <is>
+          <t>2024/05/13</t>
+        </is>
+      </c>
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>09:49:17.526</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>'DataA74'</t>
+        </is>
+      </c>
+      <c r="D57" s="5" t="inlineStr">
+        <is>
+          <t>'DataB36'</t>
+        </is>
+      </c>
+      <c r="E57" s="5" t="inlineStr">
+        <is>
+          <t>'green'</t>
+        </is>
+      </c>
+      <c r="F57" s="5" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G57" s="5" t="inlineStr">
+        <is>
+          <t>'A'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.23076923076923" r="58">
+      <c r="A58" s="6" t="inlineStr">
+        <is>
+          <t>2024/05/13</t>
+        </is>
+      </c>
+      <c r="B58" s="6" t="inlineStr">
+        <is>
+          <t>22:11:34.196</t>
+        </is>
+      </c>
+      <c r="C58" s="6" t="inlineStr">
+        <is>
+          <t>'DataA89'</t>
+        </is>
+      </c>
+      <c r="D58" s="6" t="inlineStr">
+        <is>
+          <t>'DataB14'</t>
+        </is>
+      </c>
+      <c r="E58" s="6" t="inlineStr">
+        <is>
+          <t>'yellow'</t>
+        </is>
+      </c>
+      <c r="F58" s="6" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G58" s="6" t="inlineStr">
+        <is>
+          <t>'A'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.23076923076923" r="59">
+      <c r="A59" s="5" t="inlineStr">
+        <is>
+          <t>2024/05/14</t>
+        </is>
+      </c>
+      <c r="B59" s="5" t="inlineStr">
+        <is>
+          <t>02:22:47.817</t>
+        </is>
+      </c>
+      <c r="C59" s="5" t="inlineStr">
+        <is>
+          <t>'DataA57'</t>
+        </is>
+      </c>
+      <c r="D59" s="5" t="inlineStr">
+        <is>
+          <t>'DataB17'</t>
+        </is>
+      </c>
+      <c r="E59" s="5" t="inlineStr">
+        <is>
+          <t>'green'</t>
+        </is>
+      </c>
+      <c r="F59" s="5" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G59" s="5" t="inlineStr">
+        <is>
+          <t>'C'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.23076923076923" r="60">
+      <c r="A60" s="5" t="inlineStr">
+        <is>
+          <t>2024/05/14</t>
+        </is>
+      </c>
+      <c r="B60" s="5" t="inlineStr">
+        <is>
+          <t>13:56:44.381</t>
+        </is>
+      </c>
+      <c r="C60" s="5" t="inlineStr">
+        <is>
+          <t>'DataA84'</t>
+        </is>
+      </c>
+      <c r="D60" s="5" t="inlineStr">
+        <is>
+          <t>'DataB56'</t>
+        </is>
+      </c>
+      <c r="E60" s="5" t="inlineStr">
+        <is>
+          <t>'green'</t>
+        </is>
+      </c>
+      <c r="F60" s="5" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G60" s="5" t="inlineStr">
+        <is>
+          <t>'F'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.23076923076923" r="61">
+      <c r="A61" s="7" t="inlineStr">
+        <is>
+          <t>2024/05/14</t>
+        </is>
+      </c>
+      <c r="B61" s="7" t="inlineStr">
+        <is>
+          <t>23:09:22.679</t>
+        </is>
+      </c>
+      <c r="C61" s="7" t="inlineStr">
+        <is>
+          <t>'DataA67'</t>
+        </is>
+      </c>
+      <c r="D61" s="7" t="inlineStr">
+        <is>
+          <t>'DataB48'</t>
+        </is>
+      </c>
+      <c r="E61" s="7" t="inlineStr">
+        <is>
+          <t>'red'</t>
+        </is>
+      </c>
+      <c r="F61" s="7" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G61" s="7" t="inlineStr">
+        <is>
+          <t>'C'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.23076923076923" r="62">
+      <c r="A62" s="5" t="inlineStr">
+        <is>
+          <t>2024/05/15</t>
+        </is>
+      </c>
+      <c r="B62" s="5" t="inlineStr">
+        <is>
+          <t>04:29:17.234</t>
+        </is>
+      </c>
+      <c r="C62" s="5" t="inlineStr">
+        <is>
+          <t>'DataA82'</t>
+        </is>
+      </c>
+      <c r="D62" s="5" t="inlineStr">
+        <is>
+          <t>'DataB41'</t>
+        </is>
+      </c>
+      <c r="E62" s="5" t="inlineStr">
+        <is>
+          <t>'green'</t>
+        </is>
+      </c>
+      <c r="F62" s="5" t="inlineStr">
+        <is>
+          <t>'before'</t>
+        </is>
+      </c>
+      <c r="G62" s="5" t="inlineStr">
+        <is>
+          <t>'E'</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.23076923076923" r="63">
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>2024/05/15</t>
+        </is>
+      </c>
+      <c r="B63" s="5" t="inlineStr">
+        <is>
+          <t>13:07:38.284</t>
+        </is>
+      </c>
+      <c r="C63" s="5" t="inlineStr">
+        <is>
+          <t>'DataA21'</t>
+        </is>
+      </c>
+      <c r="D63" s="5" t="inlineStr">
+        <is>
+          <t>'DataB62'</t>
+        </is>
+      </c>
+      <c r="E63" s="5" t="inlineStr">
+        <is>
+          <t>'green'</t>
+        </is>
+      </c>
+      <c r="F63" s="5" t="inlineStr">
+        <is>
+          <t>'after'</t>
+        </is>
+      </c>
+      <c r="G63" s="5" t="inlineStr">
+        <is>
+          <t>'D'</t>
         </is>
       </c>
     </row>
